--- a/turk credit.xlsx
+++ b/turk credit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Documents\GitHub\Nick-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29210F1-60AB-4FB6-B006-9830BA88E3A5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2042490D-F6A6-49EE-B7BA-75051A30FCB6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" xr2:uid="{7776581E-1E35-4D58-95B8-A7680E59AC6E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
   <si>
     <t>Random ID</t>
   </si>
@@ -79,6 +79,96 @@
   </si>
   <si>
     <t>APUPF3D94XYUQ</t>
+  </si>
+  <si>
+    <t>AETIZKQNUSBLB</t>
+  </si>
+  <si>
+    <t>A1AREBIHWPXTU3</t>
+  </si>
+  <si>
+    <t>A2OFN0A5CPLH57</t>
+  </si>
+  <si>
+    <t>A1ALU9NOW3R98V</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Left most of recall blank</t>
+  </si>
+  <si>
+    <t>Its pretty clear they didn't even try (lots of  jaj;skdlfj responses)</t>
+  </si>
+  <si>
+    <t>A7HO8U70MUTUG</t>
+  </si>
+  <si>
+    <t>ABL3H3O3BI8ZD</t>
+  </si>
+  <si>
+    <t>A2OGCXGLS44ZAO</t>
+  </si>
+  <si>
+    <t>A3QSJY1FFN0N6V</t>
+  </si>
+  <si>
+    <t>A1H8I7FOW3HWD3</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Responded with words instead of numbers</t>
+  </si>
+  <si>
+    <t>AJYS2S6A21J19</t>
+  </si>
+  <si>
+    <t>APYVY45NMS560</t>
+  </si>
+  <si>
+    <t>AVBRJBJONL47I</t>
+  </si>
+  <si>
+    <t>A3RS7UCO7CQ74R</t>
+  </si>
+  <si>
+    <t>A1OFDSW46O37UT</t>
+  </si>
+  <si>
+    <t>A10XW6SNPNQX16</t>
+  </si>
+  <si>
+    <t>AW0K78T4I2T72</t>
+  </si>
+  <si>
+    <t>AYF8B7WJO2YQU</t>
+  </si>
+  <si>
+    <t>A1PTH9KTRO06EG</t>
+  </si>
+  <si>
+    <t>A397HP5TSIF2LO</t>
+  </si>
+  <si>
+    <t>ALT86ZCKZZMLZ</t>
+  </si>
+  <si>
+    <t>A27CEAL8PWSAG5</t>
+  </si>
+  <si>
+    <t>A33KB8LHYO0HI9</t>
+  </si>
+  <si>
+    <t>A2K71XSKWI4H0Z</t>
+  </si>
+  <si>
+    <t>They left out 3/4ths of recall, but most of what they got was right so it looks like they actually tried.</t>
   </si>
 </sst>
 </file>
@@ -430,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DC2651-32B9-4198-9F7C-FFF3F60500BB}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,9 +532,10 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -457,8 +548,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -472,7 +566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -486,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -500,7 +594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -514,7 +608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -528,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -542,7 +636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -556,7 +650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -570,7 +664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -584,7 +678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -595,6 +689,352 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>721806494</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>813298116</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>869218061</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>221970617</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>174585831</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>598792250</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>158948370</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>155222784</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>966808036</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>949977724</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>173657584</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>790679983</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>486230181</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>836362641</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>167359649</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>301980030</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>697251812</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>292294730</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>722032059</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>116957640</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>231622323</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>783859105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>523840660</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
         <v>5</v>
       </c>
     </row>

--- a/turk credit.xlsx
+++ b/turk credit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Documents\GitHub\Nick-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2042490D-F6A6-49EE-B7BA-75051A30FCB6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4486303-72CB-4DBB-A0C2-95F52BA605AA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" xr2:uid="{7776581E-1E35-4D58-95B8-A7680E59AC6E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="89">
   <si>
     <t>Random ID</t>
   </si>
@@ -169,6 +169,129 @@
   </si>
   <si>
     <t>They left out 3/4ths of recall, but most of what they got was right so it looks like they actually tried.</t>
+  </si>
+  <si>
+    <t>A2C1A6AHLP9ARN</t>
+  </si>
+  <si>
+    <t>A5X1KZ9CCHREK</t>
+  </si>
+  <si>
+    <t>AV06T9IONKYFI</t>
+  </si>
+  <si>
+    <t>A1NYI79LUIBOTP</t>
+  </si>
+  <si>
+    <t>A1NLW5ZS2WQR35</t>
+  </si>
+  <si>
+    <t>A2AWBDW9V1E9KT</t>
+  </si>
+  <si>
+    <t>A1JN13098RIE78</t>
+  </si>
+  <si>
+    <t>A1USDMJVT10CE4</t>
+  </si>
+  <si>
+    <t>ACH337Q8X1SOI</t>
+  </si>
+  <si>
+    <t>A1H1EUBEOPVCQZ</t>
+  </si>
+  <si>
+    <t>A2OVX9UW5WANQE</t>
+  </si>
+  <si>
+    <t>A1P0XSCJ9XAV74</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>responded with numbers to recall task</t>
+  </si>
+  <si>
+    <t>A3AY0315YWWNXY</t>
+  </si>
+  <si>
+    <t>A2QIZ31TMHU0GD</t>
+  </si>
+  <si>
+    <t>A1TLQ6BTDQX7US</t>
+  </si>
+  <si>
+    <t>A3SOZYQZWJOOYS</t>
+  </si>
+  <si>
+    <t>A4IFGGWB0QNSP</t>
+  </si>
+  <si>
+    <t>AFZKP8TAXAUCR</t>
+  </si>
+  <si>
+    <t>A39ZJ6GDHFZRJW</t>
+  </si>
+  <si>
+    <t>A1M9A8VTVTMTH8</t>
+  </si>
+  <si>
+    <t>AY4B7SUM68J3G</t>
+  </si>
+  <si>
+    <t>A3CF8ULBSE8MTL</t>
+  </si>
+  <si>
+    <t>A14M2EERU7E8KD</t>
+  </si>
+  <si>
+    <t>A3D9NTTKE35SRL</t>
+  </si>
+  <si>
+    <t>A1FLNAFLLO3UPK</t>
+  </si>
+  <si>
+    <t>A2WAQLPXT615HQ</t>
+  </si>
+  <si>
+    <t>A321YWMP74ULKH</t>
+  </si>
+  <si>
+    <t>AMW2XLD9443OH</t>
+  </si>
+  <si>
+    <t>A3OCHRI3EXIVEG</t>
+  </si>
+  <si>
+    <t>A2QSKK3UORCGNY</t>
+  </si>
+  <si>
+    <t>A1AKX1C8GCVCTP</t>
+  </si>
+  <si>
+    <t>A17FGZ1I5P9RZA</t>
+  </si>
+  <si>
+    <t>A2BFBI7Z1T4AU2</t>
+  </si>
+  <si>
+    <t>AFEL74X320SX4</t>
+  </si>
+  <si>
+    <t>A4ZPIPBDO624H</t>
+  </si>
+  <si>
+    <t>A1RATFICCKLCQ</t>
+  </si>
+  <si>
+    <t>A16G6PPH1INQL8</t>
+  </si>
+  <si>
+    <t>A110KENBXU7SUJ</t>
+  </si>
+  <si>
+    <t>A28T38MOUG43YD</t>
   </si>
 </sst>
 </file>
@@ -204,8 +327,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DC2651-32B9-4198-9F7C-FFF3F60500BB}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,6 +1163,567 @@
         <v>5</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>331430813</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>235846140</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>731019799</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>374387754</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>977753845</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>291171258</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>382550114</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>995789803</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>125015085</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>169970286</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>836883184</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>588340692</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>478643673</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>380102752</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>911424766</v>
+      </c>
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>117758193</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>283952707</v>
+      </c>
+      <c r="C51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>393143519</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>381605689</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>491562071</v>
+      </c>
+      <c r="C54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>712975243</v>
+      </c>
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>627302666</v>
+      </c>
+      <c r="C56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>926042085</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58">
+        <v>647594437</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>691609686</v>
+      </c>
+      <c r="C59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60">
+        <v>221489607</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>589763509</v>
+      </c>
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>250265841</v>
+      </c>
+      <c r="C62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63">
+        <v>941659523</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64">
+        <v>513155141</v>
+      </c>
+      <c r="C64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65">
+        <v>145155370</v>
+      </c>
+      <c r="C65" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>186645518</v>
+      </c>
+      <c r="C66" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67">
+        <v>914684336</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68">
+        <v>536939174</v>
+      </c>
+      <c r="C68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <v>425025908</v>
+      </c>
+      <c r="C69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70">
+        <v>493172957</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71">
+        <v>862550955</v>
+      </c>
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72">
+        <v>889793184</v>
+      </c>
+      <c r="C72" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73">
+        <v>487257996</v>
+      </c>
+      <c r="C73" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/turk credit.xlsx
+++ b/turk credit.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Documents\GitHub\Nick-Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/Nick-Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4486303-72CB-4DBB-A0C2-95F52BA605AA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ECAAA106-CB8E-F343-8526-288786FEB751}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" xr2:uid="{7776581E-1E35-4D58-95B8-A7680E59AC6E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{7776581E-1E35-4D58-95B8-A7680E59AC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$73</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="96">
   <si>
     <t>Random ID</t>
   </si>
@@ -292,6 +295,27 @@
   </si>
   <si>
     <t>A28T38MOUG43YD</t>
+  </si>
+  <si>
+    <t>Updated online</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey instructions indicated to mark 0 to 100 in the judgment section, and you answered the task with words. Therefore, you did not follow the survey directions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You did not follow the directions for our survey, as typing random keys does not answer the questions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The second half of the survey was not complete. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the second half of the survey, the instructions were to fill in the missing words, and you entered numbers. Therefore, you did not complete the survey correctly.  </t>
   </si>
 </sst>
 </file>
@@ -335,7 +359,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -645,1086 +680,1528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DC2651-32B9-4198-9F7C-FFF3F60500BB}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>309865625</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>472762268</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>579677003</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>925129300</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>516669069</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
         <v>806530724</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
         <v>110804152</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
         <v>766221100</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
         <v>423431407</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
         <v>684992294</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>721806494</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>813298116</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>869218061</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>221970617</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
+      <c r="G15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
         <v>174585831</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
+      <c r="G16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
         <v>598792250</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
         <v>158948370</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>155222784</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>29</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
+      <c r="G19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
         <v>966808036</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>22</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
+      <c r="G20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
         <v>949977724</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>22</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22">
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
         <v>173657584</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>34</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="G22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>790679983</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>35</v>
       </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>486230181</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>36</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>836362641</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
         <v>167359649</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>38</v>
       </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
         <v>301980030</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>39</v>
       </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28">
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
         <v>697251812</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>40</v>
       </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29">
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
         <v>292294730</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>41</v>
       </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
         <v>722032059</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>42</v>
       </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31">
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
         <v>116957640</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>43</v>
       </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32">
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
         <v>231622323</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>44</v>
       </c>
-      <c r="D32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33">
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
         <v>783859105</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>45</v>
       </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
       <c r="E33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34">
+      <c r="G33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
         <v>523840660</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>46</v>
       </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>331430813</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>60</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="G35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>235846140</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>731019799</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>374387754</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>977753845</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>291171258</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>382550114</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>995789803</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>7</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>125015085</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>60</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="G43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>7</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>169970286</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>60</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="G44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>836883184</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>58</v>
       </c>
-      <c r="D45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>7</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>588340692</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>59</v>
       </c>
-      <c r="D46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47">
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
         <v>478643673</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>62</v>
       </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48">
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
         <v>380102752</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>63</v>
       </c>
-      <c r="D48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49">
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
         <v>911424766</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>64</v>
       </c>
-      <c r="D49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50">
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50">
         <v>117758193</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>65</v>
       </c>
-      <c r="D50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51">
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51">
         <v>283952707</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>66</v>
       </c>
-      <c r="D51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52">
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
         <v>393143519</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>67</v>
       </c>
-      <c r="D52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53">
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
         <v>381605689</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>68</v>
       </c>
-      <c r="D53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54">
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
         <v>491562071</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>69</v>
       </c>
-      <c r="D54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55">
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
         <v>712975243</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>70</v>
       </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56">
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
         <v>627302666</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>71</v>
       </c>
-      <c r="D56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57">
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57">
         <v>926042085</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>72</v>
       </c>
-      <c r="D57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58">
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
         <v>647594437</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>73</v>
       </c>
-      <c r="D58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59">
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
         <v>691609686</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>74</v>
       </c>
-      <c r="D59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60">
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60">
         <v>221489607</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>75</v>
       </c>
-      <c r="D60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61">
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
         <v>589763509</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>76</v>
       </c>
-      <c r="D61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62">
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62">
         <v>250265841</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>77</v>
       </c>
-      <c r="D62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63">
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
         <v>941659523</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>60</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64">
+      <c r="G63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
         <v>513155141</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>79</v>
       </c>
-      <c r="D64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65">
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65">
         <v>145155370</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>80</v>
       </c>
-      <c r="D65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66">
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66">
         <v>186645518</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>81</v>
       </c>
-      <c r="D66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67">
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
         <v>914684336</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>60</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68">
+      <c r="G67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
         <v>536939174</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>83</v>
       </c>
-      <c r="D68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69">
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69">
         <v>425025908</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>84</v>
       </c>
-      <c r="D69" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70">
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70">
         <v>493172957</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>85</v>
       </c>
-      <c r="D70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71">
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
         <v>862550955</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>86</v>
       </c>
-      <c r="D71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72">
+      <c r="E71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72">
         <v>889793184</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>87</v>
       </c>
-      <c r="D72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73">
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73">
         <v>487257996</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>88</v>
       </c>
-      <c r="D73" t="s">
-        <v>5</v>
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G73">
+    <sortCondition ref="A63"/>
+  </sortState>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/turk credit.xlsx
+++ b/turk credit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/Nick-Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Documents\GitHub\Nick-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ECAAA106-CB8E-F343-8526-288786FEB751}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7825666D-2CEE-4B0F-8A1B-5C55C8FA40AA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{7776581E-1E35-4D58-95B8-A7680E59AC6E}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" xr2:uid="{7776581E-1E35-4D58-95B8-A7680E59AC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="120">
   <si>
     <t>Random ID</t>
   </si>
@@ -316,6 +316,78 @@
   </si>
   <si>
     <t xml:space="preserve">In the second half of the survey, the instructions were to fill in the missing words, and you entered numbers. Therefore, you did not complete the survey correctly.  </t>
+  </si>
+  <si>
+    <t>A3BPRPN10HJD4B</t>
+  </si>
+  <si>
+    <t>A1BHR5XQ16T7LA</t>
+  </si>
+  <si>
+    <t>A3908297ZI3LES</t>
+  </si>
+  <si>
+    <t>A16SAB417Y96G4</t>
+  </si>
+  <si>
+    <t>A3PQ0KHESAZZ0Y</t>
+  </si>
+  <si>
+    <t>A1BSA7FVVJGZ15</t>
+  </si>
+  <si>
+    <t>A20WI3VW3CBOWN</t>
+  </si>
+  <si>
+    <t>A23A1WMFNPETYQ</t>
+  </si>
+  <si>
+    <t>A2BK45LZGGWPLX</t>
+  </si>
+  <si>
+    <t>A1YM0IWPC72J7V</t>
+  </si>
+  <si>
+    <t>A2PZG5F8RIESH9</t>
+  </si>
+  <si>
+    <t>APGX2WZ59OWDN</t>
+  </si>
+  <si>
+    <t>A2X977GVQ6L90X</t>
+  </si>
+  <si>
+    <t>A1A7KL0CEERE60</t>
+  </si>
+  <si>
+    <t>A3A8P4UR9A0DWQ</t>
+  </si>
+  <si>
+    <t>A366MTQY0JG0EM</t>
+  </si>
+  <si>
+    <t>A355PGLV2ID2SX</t>
+  </si>
+  <si>
+    <t>A247FJ235YHG9J</t>
+  </si>
+  <si>
+    <t>ACVEFRSUAPSEQ</t>
+  </si>
+  <si>
+    <t>AYSG3J2U3UF1Y</t>
+  </si>
+  <si>
+    <t>A3DFMWYTKJ57L</t>
+  </si>
+  <si>
+    <t>A2BRZKFG6WAVER</t>
+  </si>
+  <si>
+    <t>A1FYTTGF0QACU9</t>
+  </si>
+  <si>
+    <t>Responded with sentences for first judgment block, but did the other two and recall correctly. I think they just misunderstood instructions for the first block.</t>
   </si>
 </sst>
 </file>
@@ -680,20 +752,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DC2651-32B9-4198-9F7C-FFF3F60500BB}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -716,7 +790,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -736,7 +810,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -756,7 +830,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -776,7 +850,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -796,7 +870,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -816,7 +890,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -836,7 +910,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -856,7 +930,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -876,7 +950,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -896,7 +970,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -916,7 +990,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -936,7 +1010,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -959,7 +1033,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -979,7 +1053,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1002,7 +1076,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1025,7 +1099,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1048,7 +1122,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1068,7 +1142,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1088,7 +1162,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1111,7 +1185,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1134,7 +1208,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1154,7 +1228,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1174,7 +1248,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1197,7 +1271,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1217,7 +1291,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1237,7 +1311,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1257,7 +1331,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1277,7 +1351,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1297,7 +1371,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1317,7 +1391,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1337,7 +1411,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1357,7 +1431,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1380,7 +1454,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1400,7 +1474,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1423,7 +1497,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1443,7 +1517,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1463,7 +1537,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1483,7 +1557,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1503,7 +1577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1523,7 +1597,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1543,7 +1617,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1563,7 +1637,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1586,7 +1660,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1609,7 +1683,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1629,7 +1703,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1649,7 +1723,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1669,7 +1743,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1689,7 +1763,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1709,7 +1783,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1729,7 +1803,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1749,7 +1823,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1769,7 +1843,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1789,7 +1863,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1809,7 +1883,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1829,7 +1903,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1849,7 +1923,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1869,7 +1943,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1889,7 +1963,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1909,7 +1983,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1929,7 +2003,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1949,7 +2023,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1969,7 +2043,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1992,7 +2066,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2012,7 +2086,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2032,7 +2106,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2052,7 +2126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2075,7 +2149,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2095,7 +2169,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2115,7 +2189,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2135,7 +2209,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2155,7 +2229,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2175,7 +2249,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2193,6 +2267,406 @@
       </c>
       <c r="G73" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>310896066</v>
+      </c>
+      <c r="D74" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>467796272</v>
+      </c>
+      <c r="D75" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>259742865</v>
+      </c>
+      <c r="D76" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>902636683</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" t="s">
+        <v>60</v>
+      </c>
+      <c r="F77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <v>829243828</v>
+      </c>
+      <c r="D78" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>600930787</v>
+      </c>
+      <c r="D79" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>247970486</v>
+      </c>
+      <c r="D80" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>578996587</v>
+      </c>
+      <c r="D81" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>832177292</v>
+      </c>
+      <c r="D82" t="s">
+        <v>104</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>252580934</v>
+      </c>
+      <c r="D83" t="s">
+        <v>105</v>
+      </c>
+      <c r="E83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>712631268</v>
+      </c>
+      <c r="D84" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>340998081</v>
+      </c>
+      <c r="D85" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>456375464</v>
+      </c>
+      <c r="D86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>518954189</v>
+      </c>
+      <c r="D87" t="s">
+        <v>109</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>137909361</v>
+      </c>
+      <c r="D88" t="s">
+        <v>110</v>
+      </c>
+      <c r="E88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>282718676</v>
+      </c>
+      <c r="D89" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>148162636</v>
+      </c>
+      <c r="D90" t="s">
+        <v>112</v>
+      </c>
+      <c r="E90" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>742717144</v>
+      </c>
+      <c r="D91" t="s">
+        <v>113</v>
+      </c>
+      <c r="E91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>917695867</v>
+      </c>
+      <c r="D92" t="s">
+        <v>114</v>
+      </c>
+      <c r="E92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="1">
+        <v>854229411</v>
+      </c>
+      <c r="D93" t="s">
+        <v>115</v>
+      </c>
+      <c r="E93" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>583665854</v>
+      </c>
+      <c r="D94" t="s">
+        <v>116</v>
+      </c>
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>150884357</v>
+      </c>
+      <c r="D95" t="s">
+        <v>117</v>
+      </c>
+      <c r="E95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>728612870</v>
+      </c>
+      <c r="D96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E96" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/turk credit.xlsx
+++ b/turk credit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Documents\GitHub\Nick-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7825666D-2CEE-4B0F-8A1B-5C55C8FA40AA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72803224-AF33-4B49-B0D4-C7BE945DEF16}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" xr2:uid="{7776581E-1E35-4D58-95B8-A7680E59AC6E}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="132">
   <si>
     <t>Random ID</t>
   </si>
@@ -388,6 +388,42 @@
   </si>
   <si>
     <t>Responded with sentences for first judgment block, but did the other two and recall correctly. I think they just misunderstood instructions for the first block.</t>
+  </si>
+  <si>
+    <t>A2R8IV2PWFTY00</t>
+  </si>
+  <si>
+    <t>A1PZS3UIH64YP7</t>
+  </si>
+  <si>
+    <t>A3LIGKBGW5XVCK</t>
+  </si>
+  <si>
+    <t>A2FEPNA8OA1UE</t>
+  </si>
+  <si>
+    <t>A36XTKYLP4IRDN</t>
+  </si>
+  <si>
+    <t>A1N1EF0MIRSEZZ</t>
+  </si>
+  <si>
+    <t>A16LBGD84U0S4P</t>
+  </si>
+  <si>
+    <t>ATIAMDY7P54P</t>
+  </si>
+  <si>
+    <t>A1MURUJBBDJWM6</t>
+  </si>
+  <si>
+    <t>A23OWTM4N480J</t>
+  </si>
+  <si>
+    <t>A2OXTS31LD48BC</t>
+  </si>
+  <si>
+    <t>A1Y6YA93AFCHPY</t>
   </si>
 </sst>
 </file>
@@ -752,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DC2651-32B9-4198-9F7C-FFF3F60500BB}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2669,6 +2705,210 @@
         <v>5</v>
       </c>
     </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>665551691</v>
+      </c>
+      <c r="D97" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98">
+        <v>840277230</v>
+      </c>
+      <c r="D98" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99">
+        <v>263822936</v>
+      </c>
+      <c r="D99" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100">
+        <v>337569109</v>
+      </c>
+      <c r="D100" t="s">
+        <v>123</v>
+      </c>
+      <c r="E100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <v>743010949</v>
+      </c>
+      <c r="D101" t="s">
+        <v>124</v>
+      </c>
+      <c r="E101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>882668177</v>
+      </c>
+      <c r="D102" t="s">
+        <v>125</v>
+      </c>
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>653502487</v>
+      </c>
+      <c r="D103" t="s">
+        <v>126</v>
+      </c>
+      <c r="E103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <v>748991373</v>
+      </c>
+      <c r="D104" t="s">
+        <v>127</v>
+      </c>
+      <c r="E104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>511142283</v>
+      </c>
+      <c r="D105" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>945859692</v>
+      </c>
+      <c r="D106" t="s">
+        <v>129</v>
+      </c>
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>513293625</v>
+      </c>
+      <c r="D107" t="s">
+        <v>130</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>307810165</v>
+      </c>
+      <c r="D108" t="s">
+        <v>131</v>
+      </c>
+      <c r="E108" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G73">
     <sortCondition ref="A63"/>

--- a/turk credit.xlsx
+++ b/turk credit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Documents\GitHub\Nick-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72803224-AF33-4B49-B0D4-C7BE945DEF16}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11A54D-84BC-4C7F-9E92-8F37B564E753}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" xr2:uid="{7776581E-1E35-4D58-95B8-A7680E59AC6E}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="172">
   <si>
     <t>Random ID</t>
   </si>
@@ -424,6 +424,126 @@
   </si>
   <si>
     <t>A1Y6YA93AFCHPY</t>
+  </si>
+  <si>
+    <t>A1398SBKK3NZ0W</t>
+  </si>
+  <si>
+    <t>A3ET9X8TXMGXDI</t>
+  </si>
+  <si>
+    <t>A14WLAP6TCEKO0</t>
+  </si>
+  <si>
+    <t>A28Q5S6WK94WUN</t>
+  </si>
+  <si>
+    <t>A32QWM7BWCSPTS</t>
+  </si>
+  <si>
+    <t>A320BT7PLIQVZT</t>
+  </si>
+  <si>
+    <t>A3PG5MTX5F0JHH</t>
+  </si>
+  <si>
+    <t>A1L1SQ488YCCFJ</t>
+  </si>
+  <si>
+    <t>A4IH4CO046EV3</t>
+  </si>
+  <si>
+    <t>A1HM3HBBN0GWOZ</t>
+  </si>
+  <si>
+    <t>A9YN0N476F6PR</t>
+  </si>
+  <si>
+    <t>A1G2U62KJ13ZF0</t>
+  </si>
+  <si>
+    <t>A1FTGHYEU1T71Y</t>
+  </si>
+  <si>
+    <t>A3JUDO6ZDIIDNB</t>
+  </si>
+  <si>
+    <t>A3SC07W94YFEY3</t>
+  </si>
+  <si>
+    <t>A17SE6TSFTEUHM</t>
+  </si>
+  <si>
+    <t>A1LVNW69Q5VKAT</t>
+  </si>
+  <si>
+    <t>A2FLZP3C6U67JY</t>
+  </si>
+  <si>
+    <t>A1DH20G17H8BRK</t>
+  </si>
+  <si>
+    <t>A2QLFIUY3LC9D7</t>
+  </si>
+  <si>
+    <t>A1HKCTDOTL6C9I</t>
+  </si>
+  <si>
+    <t>A1UA911OAE2KFJ</t>
+  </si>
+  <si>
+    <t>A33M7EZ72P8TWF</t>
+  </si>
+  <si>
+    <t>A1JTWL9C01VHVS</t>
+  </si>
+  <si>
+    <t>A2T007HZK66WM</t>
+  </si>
+  <si>
+    <t>A2DW21D4LNQQ3P</t>
+  </si>
+  <si>
+    <t>A1362Z1A98OYI0</t>
+  </si>
+  <si>
+    <t>yes. They did respond with words on one of the three judgment sections, but they did everything else correctly, including the other two judgment blocks</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>A11YS0T8MV3Q7C</t>
+  </si>
+  <si>
+    <t>A1N8TKTLXV92QR</t>
+  </si>
+  <si>
+    <t>A2QJZJDCGK0FKR</t>
+  </si>
+  <si>
+    <t>ADL81BHN53IQ0</t>
+  </si>
+  <si>
+    <t>A3VRDQJNM1IC0E</t>
+  </si>
+  <si>
+    <t>A3KTUKOVGWE9CF</t>
+  </si>
+  <si>
+    <t>A3LFB7XLW00Q61</t>
+  </si>
+  <si>
+    <t>A2BZY06YRWGEDL</t>
+  </si>
+  <si>
+    <t>A1DY3EW6Q0B5K5</t>
+  </si>
+  <si>
+    <t>A35TWG9VW1MB5S</t>
+  </si>
+  <si>
+    <t>the just put 1 for everything, including recall. Didn't even put their turk id</t>
   </si>
 </sst>
 </file>
@@ -788,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DC2651-32B9-4198-9F7C-FFF3F60500BB}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,7 +2825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2722,7 +2842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2739,7 +2859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2756,7 +2876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2773,7 +2893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2790,7 +2910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2807,7 +2927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2824,7 +2944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2841,7 +2961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2858,7 +2978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2875,7 +2995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2892,7 +3012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2906,6 +3026,664 @@
         <v>131</v>
       </c>
       <c r="E108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109">
+        <v>532078470</v>
+      </c>
+      <c r="D109" t="s">
+        <v>132</v>
+      </c>
+      <c r="E109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>618066815</v>
+      </c>
+      <c r="D110" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111">
+        <v>519675856</v>
+      </c>
+      <c r="D111" t="s">
+        <v>134</v>
+      </c>
+      <c r="E111" t="s">
+        <v>60</v>
+      </c>
+      <c r="F111" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>590932449</v>
+      </c>
+      <c r="D112" t="s">
+        <v>135</v>
+      </c>
+      <c r="E112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <v>917813850</v>
+      </c>
+      <c r="D113" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114">
+        <v>269136247</v>
+      </c>
+      <c r="D114" t="s">
+        <v>137</v>
+      </c>
+      <c r="E114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>420974339</v>
+      </c>
+      <c r="D115" t="s">
+        <v>138</v>
+      </c>
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>262976563</v>
+      </c>
+      <c r="D116" t="s">
+        <v>139</v>
+      </c>
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>743477243</v>
+      </c>
+      <c r="D117" t="s">
+        <v>140</v>
+      </c>
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>262863227</v>
+      </c>
+      <c r="D118" t="s">
+        <v>141</v>
+      </c>
+      <c r="E118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>114887810</v>
+      </c>
+      <c r="D119" t="s">
+        <v>142</v>
+      </c>
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>446370541</v>
+      </c>
+      <c r="D120" t="s">
+        <v>143</v>
+      </c>
+      <c r="E120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121">
+        <v>894957840</v>
+      </c>
+      <c r="D121" t="s">
+        <v>144</v>
+      </c>
+      <c r="E121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>508159014</v>
+      </c>
+      <c r="D122" t="s">
+        <v>145</v>
+      </c>
+      <c r="E122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>520726426</v>
+      </c>
+      <c r="D123" t="s">
+        <v>146</v>
+      </c>
+      <c r="E123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124">
+        <v>497231171</v>
+      </c>
+      <c r="D124" t="s">
+        <v>147</v>
+      </c>
+      <c r="E124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>164513233</v>
+      </c>
+      <c r="D125" t="s">
+        <v>148</v>
+      </c>
+      <c r="E125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>412400732</v>
+      </c>
+      <c r="D126" t="s">
+        <v>149</v>
+      </c>
+      <c r="E126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>118199556</v>
+      </c>
+      <c r="D127" t="s">
+        <v>150</v>
+      </c>
+      <c r="E127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>881415999</v>
+      </c>
+      <c r="D128" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>849331076</v>
+      </c>
+      <c r="D129" t="s">
+        <v>152</v>
+      </c>
+      <c r="E129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130">
+        <v>743529890</v>
+      </c>
+      <c r="D130" t="s">
+        <v>153</v>
+      </c>
+      <c r="E130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>230288737</v>
+      </c>
+      <c r="D131" t="s">
+        <v>154</v>
+      </c>
+      <c r="E131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>840394195</v>
+      </c>
+      <c r="D132" t="s">
+        <v>155</v>
+      </c>
+      <c r="E132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="1">
+        <v>905799433</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134">
+        <v>111222786</v>
+      </c>
+      <c r="D134" t="s">
+        <v>157</v>
+      </c>
+      <c r="E134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135">
+        <v>590374871</v>
+      </c>
+      <c r="D135" t="s">
+        <v>158</v>
+      </c>
+      <c r="E135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="1">
+        <v>731369685</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E136" t="s">
+        <v>60</v>
+      </c>
+      <c r="F136" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="1">
+        <v>892716233</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="1">
+        <v>331778404</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="1">
+        <v>215497336</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="1">
+        <v>776701917</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="1">
+        <v>755806666</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E141" t="s">
+        <v>60</v>
+      </c>
+      <c r="F141" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="1">
+        <v>681531113</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E142" t="s">
+        <v>60</v>
+      </c>
+      <c r="F142" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143">
+        <v>749227930</v>
+      </c>
+      <c r="D143" t="s">
+        <v>167</v>
+      </c>
+      <c r="E143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144">
+        <v>411302187</v>
+      </c>
+      <c r="D144" t="s">
+        <v>168</v>
+      </c>
+      <c r="E144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>501524565</v>
+      </c>
+      <c r="D145" t="s">
+        <v>169</v>
+      </c>
+      <c r="E145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146">
+        <v>949526184</v>
+      </c>
+      <c r="D146" t="s">
+        <v>170</v>
+      </c>
+      <c r="E146" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2913,7 +3691,7 @@
   <sortState ref="A2:G73">
     <sortCondition ref="A63"/>
   </sortState>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D108 D121:D1048576 C109:C120">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/turk credit.xlsx
+++ b/turk credit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Documents\GitHub\Nick-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11A54D-84BC-4C7F-9E92-8F37B564E753}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B054A4-4C0D-4F61-A736-E856F78B7866}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" xr2:uid="{7776581E-1E35-4D58-95B8-A7680E59AC6E}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$73</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="201">
   <si>
     <t>Random ID</t>
   </si>
@@ -543,7 +543,94 @@
     <t>A35TWG9VW1MB5S</t>
   </si>
   <si>
-    <t>the just put 1 for everything, including recall. Didn't even put their turk id</t>
+    <t>A2XLTGDI5Q0VD</t>
+  </si>
+  <si>
+    <t>AYKZ9H4BNW810</t>
+  </si>
+  <si>
+    <t>A207IHY6GERCFO</t>
+  </si>
+  <si>
+    <t>ASI2B6A3Y556Z</t>
+  </si>
+  <si>
+    <t>A33SKY7HS5PDT6</t>
+  </si>
+  <si>
+    <t>A24R185CQ4SC1V</t>
+  </si>
+  <si>
+    <t>A3GEL5PWFIK05S</t>
+  </si>
+  <si>
+    <t>A3I9FTHSULHPYS</t>
+  </si>
+  <si>
+    <t>A2GOYSTIL3LOV1</t>
+  </si>
+  <si>
+    <t>A2R6RDZ07V4KWB</t>
+  </si>
+  <si>
+    <t>A3VHDQR8A9JJ4F</t>
+  </si>
+  <si>
+    <t>they just put 1 for everything, including recall. Didn't even put their turk id</t>
+  </si>
+  <si>
+    <t>A3GEHH49HNJM57</t>
+  </si>
+  <si>
+    <t>A1D2K63U3LCO3F</t>
+  </si>
+  <si>
+    <t>ALZVG5501Y5IX</t>
+  </si>
+  <si>
+    <t>A3AFC26CB0AXMI</t>
+  </si>
+  <si>
+    <t>A15XX0WDRG29E7</t>
+  </si>
+  <si>
+    <t>A2W3KKNN3CAY66</t>
+  </si>
+  <si>
+    <t>A2KBZ75HMJ7KVX</t>
+  </si>
+  <si>
+    <t>ap4fddwbjw470</t>
+  </si>
+  <si>
+    <t>A2W547SNOCMC25</t>
+  </si>
+  <si>
+    <t>A2M6URTK6WO6XJ</t>
+  </si>
+  <si>
+    <t>left most of recall and judgments blank and responded with words to a few rating questions. Pretty clear they didn't try or care.</t>
+  </si>
+  <si>
+    <t>AEF74ZYJTTEIA</t>
+  </si>
+  <si>
+    <t>A2WYCY1FMQOD5F</t>
+  </si>
+  <si>
+    <t>AAASQIW3J32OL</t>
+  </si>
+  <si>
+    <t>AAHZCL4LIPCBQ</t>
+  </si>
+  <si>
+    <t>A28FMRMS9TMEOZ</t>
+  </si>
+  <si>
+    <t>A2FKYK9Y927EBQ</t>
+  </si>
+  <si>
+    <t>A3OYUJ6E6BJS4H</t>
   </si>
 </sst>
 </file>
@@ -587,7 +674,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -908,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DC2651-32B9-4198-9F7C-FFF3F60500BB}">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3508,7 +3615,7 @@
         <v>60</v>
       </c>
       <c r="F136" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3653,7 +3760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3670,7 +3777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3684,6 +3791,485 @@
         <v>170</v>
       </c>
       <c r="E146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147">
+        <v>241554248</v>
+      </c>
+      <c r="D147" t="s">
+        <v>171</v>
+      </c>
+      <c r="E147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148">
+        <v>132286030</v>
+      </c>
+      <c r="D148" t="s">
+        <v>172</v>
+      </c>
+      <c r="E148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149">
+        <v>425834727</v>
+      </c>
+      <c r="D149" t="s">
+        <v>173</v>
+      </c>
+      <c r="E149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150">
+        <v>113708550</v>
+      </c>
+      <c r="D150" t="s">
+        <v>174</v>
+      </c>
+      <c r="E150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151">
+        <v>919809044</v>
+      </c>
+      <c r="D151" t="s">
+        <v>175</v>
+      </c>
+      <c r="E151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152">
+        <v>268043219</v>
+      </c>
+      <c r="D152" t="s">
+        <v>176</v>
+      </c>
+      <c r="E152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153">
+        <v>364732897</v>
+      </c>
+      <c r="D153" t="s">
+        <v>177</v>
+      </c>
+      <c r="E153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154">
+        <v>959214515</v>
+      </c>
+      <c r="D154" t="s">
+        <v>178</v>
+      </c>
+      <c r="E154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155">
+        <v>323711895</v>
+      </c>
+      <c r="D155" t="s">
+        <v>179</v>
+      </c>
+      <c r="E155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156">
+        <v>768705434</v>
+      </c>
+      <c r="D156" t="s">
+        <v>180</v>
+      </c>
+      <c r="E156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157">
+        <v>387708254</v>
+      </c>
+      <c r="D157" t="s">
+        <v>181</v>
+      </c>
+      <c r="E157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158">
+        <v>666501774</v>
+      </c>
+      <c r="D158" t="s">
+        <v>183</v>
+      </c>
+      <c r="E158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="1">
+        <v>400751352</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E159" t="s">
+        <v>60</v>
+      </c>
+      <c r="F159" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160">
+        <v>724130725</v>
+      </c>
+      <c r="D160" t="s">
+        <v>185</v>
+      </c>
+      <c r="E160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161">
+        <v>844493424</v>
+      </c>
+      <c r="D161" t="s">
+        <v>186</v>
+      </c>
+      <c r="E161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162">
+        <v>366318790</v>
+      </c>
+      <c r="D162" t="s">
+        <v>187</v>
+      </c>
+      <c r="E162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163">
+        <v>827697187</v>
+      </c>
+      <c r="D163" t="s">
+        <v>188</v>
+      </c>
+      <c r="E163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164">
+        <v>651778625</v>
+      </c>
+      <c r="D164" t="s">
+        <v>189</v>
+      </c>
+      <c r="E164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165">
+        <v>437881769</v>
+      </c>
+      <c r="D165" t="s">
+        <v>190</v>
+      </c>
+      <c r="E165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166">
+        <v>107192154</v>
+      </c>
+      <c r="D166" t="s">
+        <v>191</v>
+      </c>
+      <c r="E166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167">
+        <v>248084062</v>
+      </c>
+      <c r="D167" t="s">
+        <v>192</v>
+      </c>
+      <c r="E167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <v>276365433</v>
+      </c>
+      <c r="D168" t="s">
+        <v>194</v>
+      </c>
+      <c r="E168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <v>197099370</v>
+      </c>
+      <c r="D169" t="s">
+        <v>195</v>
+      </c>
+      <c r="E169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170">
+        <v>452156517</v>
+      </c>
+      <c r="D170" t="s">
+        <v>196</v>
+      </c>
+      <c r="E170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171">
+        <v>230218540</v>
+      </c>
+      <c r="D171" t="s">
+        <v>197</v>
+      </c>
+      <c r="E171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172">
+        <v>673949241</v>
+      </c>
+      <c r="D172" t="s">
+        <v>198</v>
+      </c>
+      <c r="E172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <v>393078452</v>
+      </c>
+      <c r="D173" t="s">
+        <v>199</v>
+      </c>
+      <c r="E173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174">
+        <v>131353133</v>
+      </c>
+      <c r="D174" t="s">
+        <v>200</v>
+      </c>
+      <c r="E174" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3692,7 +4278,12 @@
     <sortCondition ref="A63"/>
   </sortState>
   <conditionalFormatting sqref="D1:D108 D121:D1048576 C109:C120">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E174">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/turk credit.xlsx
+++ b/turk credit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Documents\GitHub\Nick-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B054A4-4C0D-4F61-A736-E856F78B7866}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C36DB61-2470-4A56-805B-80D33FD17C49}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" xr2:uid="{7776581E-1E35-4D58-95B8-A7680E59AC6E}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="229">
   <si>
     <t>Random ID</t>
   </si>
@@ -631,6 +631,90 @@
   </si>
   <si>
     <t>A3OYUJ6E6BJS4H</t>
+  </si>
+  <si>
+    <t>A3VD8GDFT1UF8O</t>
+  </si>
+  <si>
+    <t>A34F2ESTZYTWRM</t>
+  </si>
+  <si>
+    <t>A3V8C77FN4FLUA</t>
+  </si>
+  <si>
+    <t>A1WL3NZ50YEOWP</t>
+  </si>
+  <si>
+    <t>ASW9MABLSXSPK</t>
+  </si>
+  <si>
+    <t>A136K9Y7E4C3G</t>
+  </si>
+  <si>
+    <t>A1X1IRFYQZ40LD</t>
+  </si>
+  <si>
+    <t>A1HIQZEC2ER7GS</t>
+  </si>
+  <si>
+    <t>A1T8LV8EOI43UN</t>
+  </si>
+  <si>
+    <t>AQVXVMX61864S</t>
+  </si>
+  <si>
+    <t>A2539PUSDD137T</t>
+  </si>
+  <si>
+    <t>A229SEF35EGTSF</t>
+  </si>
+  <si>
+    <t>APJVAX6X6NVX8</t>
+  </si>
+  <si>
+    <t>A3NMQ3019X6YE0</t>
+  </si>
+  <si>
+    <t>A1JKSAQ8UNCE7B</t>
+  </si>
+  <si>
+    <t>A3LA5P3N3KI8U7</t>
+  </si>
+  <si>
+    <t>A14HW0XMI4R2ON</t>
+  </si>
+  <si>
+    <t>A3QEC8YFR7OFJN</t>
+  </si>
+  <si>
+    <t>A3MD34XEB4H6JF</t>
+  </si>
+  <si>
+    <t>A1601UNFFAAQOI</t>
+  </si>
+  <si>
+    <t>ACAJFF4MF5S5X</t>
+  </si>
+  <si>
+    <t>A2VNK2H6USLQTK</t>
+  </si>
+  <si>
+    <t>A1O299EPNHZ5O4</t>
+  </si>
+  <si>
+    <t>A1QXCUL98HP53</t>
+  </si>
+  <si>
+    <t>AKTWLQUZC35CC</t>
+  </si>
+  <si>
+    <t>A3SD02HCW68EUL</t>
+  </si>
+  <si>
+    <t>Responded with words to one judgment block, but did the other two and recall correctly.</t>
+  </si>
+  <si>
+    <t>Left all of recall blank</t>
   </si>
 </sst>
 </file>
@@ -674,7 +758,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1015,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DC2651-32B9-4198-9F7C-FFF3F60500BB}">
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4273,16 +4397,472 @@
         <v>5</v>
       </c>
     </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175">
+        <v>667503363</v>
+      </c>
+      <c r="D175" t="s">
+        <v>201</v>
+      </c>
+      <c r="E175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176">
+        <v>113244020</v>
+      </c>
+      <c r="D176" t="s">
+        <v>202</v>
+      </c>
+      <c r="E176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177">
+        <v>395692599</v>
+      </c>
+      <c r="D177" t="s">
+        <v>203</v>
+      </c>
+      <c r="E177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178">
+        <v>384701676</v>
+      </c>
+      <c r="D178" t="s">
+        <v>204</v>
+      </c>
+      <c r="E178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179">
+        <v>973425178</v>
+      </c>
+      <c r="D179" t="s">
+        <v>205</v>
+      </c>
+      <c r="E179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180">
+        <v>197595546</v>
+      </c>
+      <c r="D180" t="s">
+        <v>206</v>
+      </c>
+      <c r="E180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181">
+        <v>832226523</v>
+      </c>
+      <c r="D181" t="s">
+        <v>207</v>
+      </c>
+      <c r="E181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182">
+        <v>452520831</v>
+      </c>
+      <c r="D182" t="s">
+        <v>208</v>
+      </c>
+      <c r="E182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183">
+        <v>249803234</v>
+      </c>
+      <c r="D183" t="s">
+        <v>209</v>
+      </c>
+      <c r="E183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184">
+        <v>629264109</v>
+      </c>
+      <c r="D184" t="s">
+        <v>210</v>
+      </c>
+      <c r="E184" t="s">
+        <v>60</v>
+      </c>
+      <c r="F184" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185">
+        <v>143781420</v>
+      </c>
+      <c r="D185" t="s">
+        <v>211</v>
+      </c>
+      <c r="E185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186">
+        <v>710930777</v>
+      </c>
+      <c r="D186" t="s">
+        <v>212</v>
+      </c>
+      <c r="E186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <v>716252188</v>
+      </c>
+      <c r="D187" t="s">
+        <v>213</v>
+      </c>
+      <c r="E187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188">
+        <v>777648344</v>
+      </c>
+      <c r="D188" t="s">
+        <v>214</v>
+      </c>
+      <c r="E188" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189">
+        <v>235682009</v>
+      </c>
+      <c r="D189" t="s">
+        <v>215</v>
+      </c>
+      <c r="E189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190">
+        <v>492892574</v>
+      </c>
+      <c r="D190" t="s">
+        <v>216</v>
+      </c>
+      <c r="E190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191">
+        <v>189807627</v>
+      </c>
+      <c r="D191" t="s">
+        <v>217</v>
+      </c>
+      <c r="E191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192">
+        <v>350275122</v>
+      </c>
+      <c r="D192" t="s">
+        <v>218</v>
+      </c>
+      <c r="E192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193">
+        <v>384642728</v>
+      </c>
+      <c r="D193" t="s">
+        <v>219</v>
+      </c>
+      <c r="E193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194">
+        <v>106417185</v>
+      </c>
+      <c r="D194" t="s">
+        <v>220</v>
+      </c>
+      <c r="E194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195">
+        <v>739234596</v>
+      </c>
+      <c r="D195" t="s">
+        <v>221</v>
+      </c>
+      <c r="E195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="1">
+        <v>143501505</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E196" t="s">
+        <v>5</v>
+      </c>
+      <c r="F196" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="1">
+        <v>810824247</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="1">
+        <v>892252863</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="1">
+        <v>334135484</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="1">
+        <v>376015990</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E200" t="s">
+        <v>60</v>
+      </c>
+      <c r="F200" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G73">
     <sortCondition ref="A63"/>
   </sortState>
   <conditionalFormatting sqref="D1:D108 D121:D1048576 C109:C120">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E174">
+  <conditionalFormatting sqref="E200:E1048576">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="n0">
+      <formula>NOT(ISERROR(SEARCH("n0",E200)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("no",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/turk credit.xlsx
+++ b/turk credit.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Documents\GitHub\Nick-Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/Nick-Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C36DB61-2470-4A56-805B-80D33FD17C49}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B155D7DA-608E-5C4B-B22A-A4017E720AD9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" xr2:uid="{7776581E-1E35-4D58-95B8-A7680E59AC6E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{7776581E-1E35-4D58-95B8-A7680E59AC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$200</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="232">
   <si>
     <t>Random ID</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Left most of recall blank</t>
   </si>
   <si>
-    <t>Its pretty clear they didn't even try (lots of  jaj;skdlfj responses)</t>
-  </si>
-  <si>
     <t>A7HO8U70MUTUG</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t xml:space="preserve">Survey instructions indicated to mark 0 to 100 in the judgment section, and you answered the task with words. Therefore, you did not follow the survey directions. </t>
   </si>
   <si>
-    <t xml:space="preserve">You did not follow the directions for our survey, as typing random keys does not answer the questions. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The second half of the survey was not complete. </t>
   </si>
   <si>
@@ -507,9 +501,6 @@
     <t>A1362Z1A98OYI0</t>
   </si>
   <si>
-    <t>yes. They did respond with words on one of the three judgment sections, but they did everything else correctly, including the other two judgment blocks</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -715,6 +706,24 @@
   </si>
   <si>
     <t>Left all of recall blank</t>
+  </si>
+  <si>
+    <t>Its pretty clear they didn't even try (lots of  jaj;skdlfj responses) - reviewed and decided to give credit</t>
+  </si>
+  <si>
+    <t>They did respond with words on one of the three judgment sections, but they did everything else correctly, including the other two judgment blocks</t>
+  </si>
+  <si>
+    <t>NA on turk</t>
+  </si>
+  <si>
+    <t>You did not complete the survey.</t>
+  </si>
+  <si>
+    <t>AM2KK02JXXW48</t>
+  </si>
+  <si>
+    <t>A2R9OK4M877ZCC</t>
   </si>
 </sst>
 </file>
@@ -758,37 +767,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1139,24 +1118,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DC2651-32B9-4198-9F7C-FFF3F60500BB}">
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E200" sqref="E200"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G203" sqref="G203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -1174,10 +1153,10 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1194,10 +1173,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1214,10 +1193,10 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1234,10 +1213,10 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1254,10 +1233,10 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1274,10 +1253,10 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1294,10 +1273,10 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1314,10 +1293,10 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1334,10 +1313,10 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1354,10 +1333,10 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1374,10 +1353,10 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1394,10 +1373,10 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1411,16 +1390,16 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1437,10 +1416,10 @@
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1460,10 +1439,10 @@
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1474,7 +1453,7 @@
         <v>174585831</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
@@ -1483,10 +1462,10 @@
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1497,7 +1476,7 @@
         <v>598792250</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
@@ -1506,10 +1485,10 @@
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1520,16 +1499,16 @@
         <v>158948370</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1540,16 +1519,16 @@
         <v>155222784</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1560,19 +1539,19 @@
         <v>966808036</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1583,19 +1562,19 @@
         <v>949977724</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1606,16 +1585,16 @@
         <v>173657584</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1626,16 +1605,16 @@
         <v>790679983</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1646,19 +1625,19 @@
         <v>486230181</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1669,16 +1648,16 @@
         <v>836362641</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1689,16 +1668,16 @@
         <v>167359649</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1709,16 +1688,16 @@
         <v>301980030</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1729,16 +1708,16 @@
         <v>697251812</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1749,16 +1728,16 @@
         <v>292294730</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1769,16 +1748,16 @@
         <v>722032059</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1789,16 +1768,16 @@
         <v>116957640</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1809,16 +1788,16 @@
         <v>231622323</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1829,19 +1808,19 @@
         <v>783859105</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1852,16 +1831,16 @@
         <v>523840660</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1872,19 +1851,19 @@
         <v>331430813</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1895,16 +1874,16 @@
         <v>235846140</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1915,16 +1894,16 @@
         <v>731019799</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1935,16 +1914,16 @@
         <v>374387754</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1955,16 +1934,16 @@
         <v>977753845</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1975,16 +1954,16 @@
         <v>291171258</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1995,16 +1974,16 @@
         <v>382550114</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2015,16 +1994,16 @@
         <v>995789803</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2035,19 +2014,19 @@
         <v>125015085</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2058,19 +2037,19 @@
         <v>169970286</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" t="s">
         <v>60</v>
       </c>
-      <c r="F44" t="s">
-        <v>61</v>
-      </c>
       <c r="G44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2081,16 +2060,16 @@
         <v>836883184</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2101,16 +2080,16 @@
         <v>588340692</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2121,16 +2100,16 @@
         <v>478643673</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2141,16 +2120,16 @@
         <v>380102752</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2161,16 +2140,16 @@
         <v>911424766</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2181,16 +2160,16 @@
         <v>117758193</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
         <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2201,16 +2180,16 @@
         <v>283952707</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2221,16 +2200,16 @@
         <v>393143519</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2241,16 +2220,16 @@
         <v>381605689</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
         <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2261,16 +2240,16 @@
         <v>491562071</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E54" t="s">
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2281,16 +2260,16 @@
         <v>712975243</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2301,16 +2280,16 @@
         <v>627302666</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
       </c>
       <c r="G56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2321,16 +2300,16 @@
         <v>926042085</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E57" t="s">
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2341,16 +2320,16 @@
         <v>647594437</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2361,16 +2340,16 @@
         <v>691609686</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E59" t="s">
         <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2381,16 +2360,16 @@
         <v>221489607</v>
       </c>
       <c r="D60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E60" t="s">
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2401,16 +2380,16 @@
         <v>589763509</v>
       </c>
       <c r="D61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E61" t="s">
         <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2421,16 +2400,16 @@
         <v>250265841</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E62" t="s">
         <v>5</v>
       </c>
       <c r="G62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2441,19 +2420,19 @@
         <v>941659523</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" t="s">
         <v>60</v>
       </c>
-      <c r="F63" t="s">
-        <v>61</v>
-      </c>
       <c r="G63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2464,16 +2443,16 @@
         <v>513155141</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E64" t="s">
         <v>5</v>
       </c>
       <c r="G64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2484,16 +2463,16 @@
         <v>145155370</v>
       </c>
       <c r="D65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E65" t="s">
         <v>5</v>
       </c>
       <c r="G65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2504,16 +2483,16 @@
         <v>186645518</v>
       </c>
       <c r="D66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E66" t="s">
         <v>5</v>
       </c>
       <c r="G66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2524,19 +2503,19 @@
         <v>914684336</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E67" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" t="s">
         <v>60</v>
       </c>
-      <c r="F67" t="s">
-        <v>61</v>
-      </c>
       <c r="G67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2547,16 +2526,16 @@
         <v>536939174</v>
       </c>
       <c r="D68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E68" t="s">
         <v>5</v>
       </c>
       <c r="G68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2567,16 +2546,16 @@
         <v>425025908</v>
       </c>
       <c r="D69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E69" t="s">
         <v>5</v>
       </c>
       <c r="G69" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2587,16 +2566,16 @@
         <v>493172957</v>
       </c>
       <c r="D70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E70" t="s">
         <v>5</v>
       </c>
       <c r="G70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2607,16 +2586,16 @@
         <v>862550955</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E71" t="s">
         <v>5</v>
       </c>
       <c r="G71" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2627,16 +2606,16 @@
         <v>889793184</v>
       </c>
       <c r="D72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2647,16 +2626,16 @@
         <v>487257996</v>
       </c>
       <c r="D73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E73" t="s">
         <v>5</v>
       </c>
       <c r="G73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2667,13 +2646,16 @@
         <v>310896066</v>
       </c>
       <c r="D74" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E74" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2684,13 +2666,16 @@
         <v>467796272</v>
       </c>
       <c r="D75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2701,13 +2686,16 @@
         <v>259742865</v>
       </c>
       <c r="D76" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2718,16 +2706,19 @@
         <v>902636683</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2738,13 +2729,16 @@
         <v>829243828</v>
       </c>
       <c r="D78" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2755,13 +2749,16 @@
         <v>600930787</v>
       </c>
       <c r="D79" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E79" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2772,13 +2769,16 @@
         <v>247970486</v>
       </c>
       <c r="D80" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E80" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2789,13 +2789,16 @@
         <v>578996587</v>
       </c>
       <c r="D81" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2806,13 +2809,16 @@
         <v>832177292</v>
       </c>
       <c r="D82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E82" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2823,13 +2829,16 @@
         <v>252580934</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E83" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2840,13 +2849,16 @@
         <v>712631268</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E84" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2857,13 +2869,16 @@
         <v>340998081</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2874,13 +2889,16 @@
         <v>456375464</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2891,13 +2909,16 @@
         <v>518954189</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E87" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2908,13 +2929,16 @@
         <v>137909361</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2925,13 +2949,16 @@
         <v>282718676</v>
       </c>
       <c r="D89" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E89" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2942,7 +2969,7 @@
         <v>148162636</v>
       </c>
       <c r="D90" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E90" t="s">
         <v>22</v>
@@ -2950,8 +2977,11 @@
       <c r="F90" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2962,13 +2992,16 @@
         <v>742717144</v>
       </c>
       <c r="D91" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E91" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2979,13 +3012,16 @@
         <v>917695867</v>
       </c>
       <c r="D92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E92" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2996,16 +3032,19 @@
         <v>854229411</v>
       </c>
       <c r="D93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E93" t="s">
         <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3016,13 +3055,16 @@
         <v>583665854</v>
       </c>
       <c r="D94" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E94" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3033,13 +3075,16 @@
         <v>150884357</v>
       </c>
       <c r="D95" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E95" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3050,13 +3095,16 @@
         <v>728612870</v>
       </c>
       <c r="D96" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E96" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3067,13 +3115,16 @@
         <v>665551691</v>
       </c>
       <c r="D97" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E97" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3084,13 +3135,16 @@
         <v>840277230</v>
       </c>
       <c r="D98" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E98" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3101,13 +3155,16 @@
         <v>263822936</v>
       </c>
       <c r="D99" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E99" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3118,13 +3175,16 @@
         <v>337569109</v>
       </c>
       <c r="D100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3135,13 +3195,16 @@
         <v>743010949</v>
       </c>
       <c r="D101" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E101" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3152,13 +3215,16 @@
         <v>882668177</v>
       </c>
       <c r="D102" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E102" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3169,13 +3235,16 @@
         <v>653502487</v>
       </c>
       <c r="D103" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E103" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3186,13 +3255,16 @@
         <v>748991373</v>
       </c>
       <c r="D104" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E104" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3203,13 +3275,16 @@
         <v>511142283</v>
       </c>
       <c r="D105" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E105" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3220,13 +3295,16 @@
         <v>945859692</v>
       </c>
       <c r="D106" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E106" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3237,13 +3315,16 @@
         <v>513293625</v>
       </c>
       <c r="D107" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E107" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3254,13 +3335,16 @@
         <v>307810165</v>
       </c>
       <c r="D108" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E108" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3271,13 +3355,16 @@
         <v>532078470</v>
       </c>
       <c r="D109" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E109" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3288,13 +3375,16 @@
         <v>618066815</v>
       </c>
       <c r="D110" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E110" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3305,16 +3395,19 @@
         <v>519675856</v>
       </c>
       <c r="D111" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E111" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G111" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3325,13 +3418,16 @@
         <v>590932449</v>
       </c>
       <c r="D112" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E112" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3342,13 +3438,16 @@
         <v>917813850</v>
       </c>
       <c r="D113" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E113" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G113" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3359,13 +3458,16 @@
         <v>269136247</v>
       </c>
       <c r="D114" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E114" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3376,13 +3478,16 @@
         <v>420974339</v>
       </c>
       <c r="D115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E115" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3393,13 +3498,16 @@
         <v>262976563</v>
       </c>
       <c r="D116" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E116" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G116" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3410,13 +3518,16 @@
         <v>743477243</v>
       </c>
       <c r="D117" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E117" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G117" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3427,13 +3538,16 @@
         <v>262863227</v>
       </c>
       <c r="D118" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E118" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G118" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3444,13 +3558,16 @@
         <v>114887810</v>
       </c>
       <c r="D119" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E119" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G119" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3461,13 +3578,16 @@
         <v>446370541</v>
       </c>
       <c r="D120" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E120" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G120" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3478,13 +3598,16 @@
         <v>894957840</v>
       </c>
       <c r="D121" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E121" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3495,13 +3618,16 @@
         <v>508159014</v>
       </c>
       <c r="D122" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E122" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G122" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3512,13 +3638,16 @@
         <v>520726426</v>
       </c>
       <c r="D123" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E123" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G123" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3529,13 +3658,16 @@
         <v>497231171</v>
       </c>
       <c r="D124" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E124" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G124" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3546,13 +3678,16 @@
         <v>164513233</v>
       </c>
       <c r="D125" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E125" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G125" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3563,13 +3698,16 @@
         <v>412400732</v>
       </c>
       <c r="D126" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E126" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G126" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3580,13 +3718,16 @@
         <v>118199556</v>
       </c>
       <c r="D127" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E127" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G127" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3597,13 +3738,16 @@
         <v>881415999</v>
       </c>
       <c r="D128" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E128" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3614,13 +3758,16 @@
         <v>849331076</v>
       </c>
       <c r="D129" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E129" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3631,13 +3778,16 @@
         <v>743529890</v>
       </c>
       <c r="D130" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E130" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3648,13 +3798,16 @@
         <v>230288737</v>
       </c>
       <c r="D131" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E131" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3665,13 +3818,16 @@
         <v>840394195</v>
       </c>
       <c r="D132" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E132" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3682,13 +3838,19 @@
         <v>905799433</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E133" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F133" t="s">
+        <v>227</v>
+      </c>
+      <c r="G133" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3699,13 +3861,16 @@
         <v>111222786</v>
       </c>
       <c r="D134" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E134" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3716,13 +3881,16 @@
         <v>590374871</v>
       </c>
       <c r="D135" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E135" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3733,16 +3901,19 @@
         <v>731369685</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F136" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="G136" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3753,13 +3924,16 @@
         <v>892716233</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E137" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3770,13 +3944,16 @@
         <v>331778404</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E138" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3787,13 +3964,16 @@
         <v>215497336</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E139" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3804,13 +3984,16 @@
         <v>776701917</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E140" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3821,16 +4004,19 @@
         <v>755806666</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E141" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G141" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3841,16 +4027,19 @@
         <v>681531113</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E142" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G142" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3861,13 +4050,16 @@
         <v>749227930</v>
       </c>
       <c r="D143" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E143" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3878,13 +4070,16 @@
         <v>411302187</v>
       </c>
       <c r="D144" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E144" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3895,13 +4090,16 @@
         <v>501524565</v>
       </c>
       <c r="D145" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E145" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3912,13 +4110,16 @@
         <v>949526184</v>
       </c>
       <c r="D146" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E146" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3929,13 +4130,16 @@
         <v>241554248</v>
       </c>
       <c r="D147" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E147" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3946,13 +4150,16 @@
         <v>132286030</v>
       </c>
       <c r="D148" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E148" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3963,13 +4170,16 @@
         <v>425834727</v>
       </c>
       <c r="D149" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E149" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3980,13 +4190,16 @@
         <v>113708550</v>
       </c>
       <c r="D150" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E150" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3997,13 +4210,16 @@
         <v>919809044</v>
       </c>
       <c r="D151" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E151" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4014,13 +4230,16 @@
         <v>268043219</v>
       </c>
       <c r="D152" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E152" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4031,13 +4250,16 @@
         <v>364732897</v>
       </c>
       <c r="D153" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E153" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4048,13 +4270,16 @@
         <v>959214515</v>
       </c>
       <c r="D154" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E154" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4065,13 +4290,16 @@
         <v>323711895</v>
       </c>
       <c r="D155" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E155" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4082,13 +4310,16 @@
         <v>768705434</v>
       </c>
       <c r="D156" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E156" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4099,13 +4330,16 @@
         <v>387708254</v>
       </c>
       <c r="D157" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E157" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4116,13 +4350,16 @@
         <v>666501774</v>
       </c>
       <c r="D158" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E158" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4133,16 +4370,19 @@
         <v>400751352</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E159" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F159" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="G159" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4153,13 +4393,16 @@
         <v>724130725</v>
       </c>
       <c r="D160" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E160" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G160" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4170,13 +4413,16 @@
         <v>844493424</v>
       </c>
       <c r="D161" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E161" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G161" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4187,13 +4433,16 @@
         <v>366318790</v>
       </c>
       <c r="D162" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E162" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G162" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4204,13 +4453,16 @@
         <v>827697187</v>
       </c>
       <c r="D163" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E163" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G163" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4221,13 +4473,16 @@
         <v>651778625</v>
       </c>
       <c r="D164" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E164" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G164" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4238,13 +4493,16 @@
         <v>437881769</v>
       </c>
       <c r="D165" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E165" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G165" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4255,13 +4513,16 @@
         <v>107192154</v>
       </c>
       <c r="D166" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E166" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G166" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4272,13 +4533,16 @@
         <v>248084062</v>
       </c>
       <c r="D167" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E167" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G167" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4289,13 +4553,16 @@
         <v>276365433</v>
       </c>
       <c r="D168" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E168" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G168" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4306,13 +4573,16 @@
         <v>197099370</v>
       </c>
       <c r="D169" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E169" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G169" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4323,13 +4593,16 @@
         <v>452156517</v>
       </c>
       <c r="D170" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E170" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G170" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4340,13 +4613,16 @@
         <v>230218540</v>
       </c>
       <c r="D171" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E171" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G171" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4357,13 +4633,16 @@
         <v>673949241</v>
       </c>
       <c r="D172" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E172" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G172" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4374,13 +4653,16 @@
         <v>393078452</v>
       </c>
       <c r="D173" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E173" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G173" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4391,13 +4673,16 @@
         <v>131353133</v>
       </c>
       <c r="D174" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E174" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G174" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4408,13 +4693,16 @@
         <v>667503363</v>
       </c>
       <c r="D175" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E175" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G175" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4425,13 +4713,16 @@
         <v>113244020</v>
       </c>
       <c r="D176" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E176" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4442,13 +4733,16 @@
         <v>395692599</v>
       </c>
       <c r="D177" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E177" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4459,13 +4753,16 @@
         <v>384701676</v>
       </c>
       <c r="D178" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E178" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4476,13 +4773,16 @@
         <v>973425178</v>
       </c>
       <c r="D179" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E179" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4493,13 +4793,16 @@
         <v>197595546</v>
       </c>
       <c r="D180" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E180" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4510,13 +4813,16 @@
         <v>832226523</v>
       </c>
       <c r="D181" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E181" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4527,13 +4833,16 @@
         <v>452520831</v>
       </c>
       <c r="D182" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E182" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4544,13 +4853,16 @@
         <v>249803234</v>
       </c>
       <c r="D183" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E183" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4561,16 +4873,19 @@
         <v>629264109</v>
       </c>
       <c r="D184" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E184" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F184" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4581,13 +4896,16 @@
         <v>143781420</v>
       </c>
       <c r="D185" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E185" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4598,13 +4916,16 @@
         <v>710930777</v>
       </c>
       <c r="D186" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E186" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4615,13 +4936,16 @@
         <v>716252188</v>
       </c>
       <c r="D187" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E187" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4632,13 +4956,16 @@
         <v>777648344</v>
       </c>
       <c r="D188" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E188" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4649,13 +4976,16 @@
         <v>235682009</v>
       </c>
       <c r="D189" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E189" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4666,13 +4996,16 @@
         <v>492892574</v>
       </c>
       <c r="D190" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E190" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4683,13 +5016,16 @@
         <v>189807627</v>
       </c>
       <c r="D191" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E191" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4700,13 +5036,16 @@
         <v>350275122</v>
       </c>
       <c r="D192" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E192" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4717,13 +5056,16 @@
         <v>384642728</v>
       </c>
       <c r="D193" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E193" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4734,13 +5076,16 @@
         <v>106417185</v>
       </c>
       <c r="D194" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E194" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4751,13 +5096,16 @@
         <v>739234596</v>
       </c>
       <c r="D195" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E195" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4768,16 +5116,19 @@
         <v>143501505</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E196" t="s">
         <v>5</v>
       </c>
       <c r="F196" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="G196" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4788,13 +5139,16 @@
         <v>810824247</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E197" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4805,13 +5159,16 @@
         <v>892252863</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E198" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4822,13 +5179,16 @@
         <v>334135484</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E199" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4839,31 +5199,77 @@
         <v>376015990</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E200" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F200" t="s">
-        <v>228</v>
+        <v>225</v>
+      </c>
+      <c r="G200" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201">
+        <v>262625621</v>
+      </c>
+      <c r="D201" t="s">
+        <v>230</v>
+      </c>
+      <c r="E201" t="s">
+        <v>5</v>
+      </c>
+      <c r="G201" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202">
+        <v>379379106</v>
+      </c>
+      <c r="D202" t="s">
+        <v>231</v>
+      </c>
+      <c r="E202" t="s">
+        <v>5</v>
+      </c>
+      <c r="G202" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G73">
-    <sortCondition ref="A63"/>
+  <sortState ref="A2:G200">
+    <sortCondition ref="A167"/>
   </sortState>
   <conditionalFormatting sqref="D1:D108 D121:D1048576 C109:C120">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E200:E1048576">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="n0">
-      <formula>NOT(ISERROR(SEARCH("n0",E200)))</formula>
+  <conditionalFormatting sqref="E200:E201 E203:E1048576 C202">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="n0">
+      <formula>NOT(ISERROR(SEARCH("n0",C200)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",E1)))</formula>
+  <conditionalFormatting sqref="C202 E1:E1048576">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",C1)))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/turk credit.xlsx
+++ b/turk credit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/Nick-Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Documents\GitHub\Nick-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B155D7DA-608E-5C4B-B22A-A4017E720AD9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B124AB1F-3E66-4176-B573-EFB5EAEC8558}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{7776581E-1E35-4D58-95B8-A7680E59AC6E}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" xr2:uid="{7776581E-1E35-4D58-95B8-A7680E59AC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="252">
   <si>
     <t>Random ID</t>
   </si>
@@ -724,6 +724,66 @@
   </si>
   <si>
     <t>A2R9OK4M877ZCC</t>
+  </si>
+  <si>
+    <t>A1TO8F0HIM1OBQ</t>
+  </si>
+  <si>
+    <t>AHKRGPN5D3I2G</t>
+  </si>
+  <si>
+    <t>A3LSG8J12TDMNF</t>
+  </si>
+  <si>
+    <t>ABZD7CRM46SN</t>
+  </si>
+  <si>
+    <t>ADIAEAPYRI8CK</t>
+  </si>
+  <si>
+    <t>A37533SGF100SL</t>
+  </si>
+  <si>
+    <t>A1ZVTAK0GLO959</t>
+  </si>
+  <si>
+    <t>A1A2WB8WDTQKHF</t>
+  </si>
+  <si>
+    <t>A1SOOCPS9CRCQE</t>
+  </si>
+  <si>
+    <t>A26H9WHLF0BXSY</t>
+  </si>
+  <si>
+    <t>A22IIMLQ7K4B3M</t>
+  </si>
+  <si>
+    <t>AN7ZJTSOR3532</t>
+  </si>
+  <si>
+    <t>A3R0L8CEVVSAY8</t>
+  </si>
+  <si>
+    <t>A1SIUJEL2LS8UO</t>
+  </si>
+  <si>
+    <t>A1GKD3NG1NNHRP</t>
+  </si>
+  <si>
+    <t>APVWMP5952IOY</t>
+  </si>
+  <si>
+    <t>A3BKZ14V95ZNR6</t>
+  </si>
+  <si>
+    <t>A1E6BPJ54S9T5X</t>
+  </si>
+  <si>
+    <t>AA8MK8AWWWL62</t>
+  </si>
+  <si>
+    <t>Responded with words to judgment blocks.  Pretty sure if this dude had done it right that I'd have all the data I'd need too.</t>
   </si>
 </sst>
 </file>
@@ -739,12 +799,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -759,10 +825,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,22 +1185,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DC2651-32B9-4198-9F7C-FFF3F60500BB}">
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G203" sqref="G203"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F222" sqref="F222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="38.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -1156,7 +1223,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1176,7 +1243,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1196,7 +1263,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1216,7 +1283,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1236,7 +1303,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1256,7 +1323,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1276,7 +1343,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1296,7 +1363,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1316,7 +1383,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1336,7 +1403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1356,7 +1423,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1376,7 +1443,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1399,7 +1466,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1419,7 +1486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1442,7 +1509,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1465,7 +1532,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1488,7 +1555,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1508,7 +1575,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1528,7 +1595,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1551,7 +1618,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1574,7 +1641,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1594,7 +1661,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1614,7 +1681,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1637,7 +1704,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1657,7 +1724,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1677,7 +1744,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1697,7 +1764,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1717,7 +1784,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1737,7 +1804,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1757,7 +1824,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1777,7 +1844,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1797,7 +1864,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1820,7 +1887,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1840,7 +1907,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1863,7 +1930,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1883,7 +1950,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1903,7 +1970,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1923,7 +1990,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1943,7 +2010,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1963,7 +2030,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1983,7 +2050,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2003,7 +2070,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2026,7 +2093,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2049,7 +2116,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2069,7 +2136,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2089,7 +2156,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2109,7 +2176,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2129,7 +2196,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2149,7 +2216,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2169,7 +2236,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2189,7 +2256,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2209,7 +2276,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2229,7 +2296,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2249,7 +2316,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2269,7 +2336,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2289,7 +2356,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2309,7 +2376,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2329,7 +2396,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2349,7 +2416,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2369,7 +2436,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2389,7 +2456,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2409,7 +2476,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2432,7 +2499,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2452,7 +2519,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2472,7 +2539,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2492,7 +2559,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2515,7 +2582,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2535,7 +2602,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2555,7 +2622,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2575,7 +2642,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2595,7 +2662,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2615,7 +2682,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2635,7 +2702,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2655,7 +2722,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2675,7 +2742,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2695,7 +2762,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2718,7 +2785,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2738,7 +2805,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2758,7 +2825,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2778,7 +2845,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2798,7 +2865,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2818,7 +2885,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2838,7 +2905,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2858,7 +2925,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2878,7 +2945,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2898,7 +2965,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2918,7 +2985,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2938,7 +3005,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2958,7 +3025,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2981,7 +3048,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3001,7 +3068,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3021,7 +3088,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3044,7 +3111,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3064,7 +3131,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3084,7 +3151,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3104,7 +3171,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3124,7 +3191,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3144,7 +3211,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3164,7 +3231,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3184,7 +3251,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3204,7 +3271,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3224,7 +3291,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3244,7 +3311,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3264,7 +3331,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3284,7 +3351,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3304,7 +3371,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3324,7 +3391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3344,7 +3411,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3364,7 +3431,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3384,7 +3451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3407,7 +3474,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3427,7 +3494,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3447,7 +3514,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3467,7 +3534,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3487,7 +3554,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3507,7 +3574,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3527,7 +3594,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3547,7 +3614,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3567,7 +3634,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3587,7 +3654,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3607,7 +3674,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3627,7 +3694,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3647,7 +3714,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3667,7 +3734,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3687,7 +3754,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3707,7 +3774,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3727,7 +3794,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3747,7 +3814,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3767,7 +3834,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3787,7 +3854,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3807,7 +3874,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3827,7 +3894,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3850,7 +3917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3870,7 +3937,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3890,7 +3957,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3913,7 +3980,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3933,7 +4000,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3953,7 +4020,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3973,7 +4040,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3993,7 +4060,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4016,7 +4083,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4039,7 +4106,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4059,7 +4126,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4079,7 +4146,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4099,7 +4166,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4119,7 +4186,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4139,7 +4206,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4159,7 +4226,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4179,7 +4246,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4199,7 +4266,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4219,7 +4286,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4239,7 +4306,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4259,7 +4326,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4279,7 +4346,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4299,7 +4366,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4319,7 +4386,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4339,7 +4406,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4359,7 +4426,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4382,7 +4449,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4402,7 +4469,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4422,7 +4489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4442,7 +4509,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4462,7 +4529,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4482,7 +4549,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4502,7 +4569,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4522,7 +4589,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4542,7 +4609,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4562,7 +4629,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4582,7 +4649,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4602,7 +4669,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4622,7 +4689,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4642,7 +4709,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4662,7 +4729,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4682,7 +4749,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4702,7 +4769,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4722,7 +4789,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4742,7 +4809,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4762,7 +4829,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4782,7 +4849,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4802,7 +4869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4822,7 +4889,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4842,7 +4909,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4862,7 +4929,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4885,7 +4952,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4905,7 +4972,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4925,7 +4992,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4945,7 +5012,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4965,7 +5032,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4985,7 +5052,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5005,7 +5072,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5025,7 +5092,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5045,7 +5112,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5065,7 +5132,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5085,7 +5152,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5105,7 +5172,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5128,7 +5195,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5148,7 +5215,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5168,7 +5235,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5188,7 +5255,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5211,7 +5278,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5231,7 +5298,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5249,16 +5316,342 @@
       </c>
       <c r="G202" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203">
+        <v>724472082</v>
+      </c>
+      <c r="D203" t="s">
+        <v>232</v>
+      </c>
+      <c r="E203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204">
+        <v>309372900</v>
+      </c>
+      <c r="D204" t="s">
+        <v>233</v>
+      </c>
+      <c r="E204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205">
+        <v>361649891</v>
+      </c>
+      <c r="D205" t="s">
+        <v>234</v>
+      </c>
+      <c r="E205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206">
+        <v>530369032</v>
+      </c>
+      <c r="D206" t="s">
+        <v>235</v>
+      </c>
+      <c r="E206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207">
+        <v>867241876</v>
+      </c>
+      <c r="D207" t="s">
+        <v>236</v>
+      </c>
+      <c r="E207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208">
+        <v>267547665</v>
+      </c>
+      <c r="D208" t="s">
+        <v>237</v>
+      </c>
+      <c r="E208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209">
+        <v>696848428</v>
+      </c>
+      <c r="D209" t="s">
+        <v>238</v>
+      </c>
+      <c r="E209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210">
+        <v>708373319</v>
+      </c>
+      <c r="D210" t="s">
+        <v>239</v>
+      </c>
+      <c r="E210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211">
+        <v>645029779</v>
+      </c>
+      <c r="D211" t="s">
+        <v>240</v>
+      </c>
+      <c r="E211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212">
+        <v>498272222</v>
+      </c>
+      <c r="D212" t="s">
+        <v>241</v>
+      </c>
+      <c r="E212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213">
+        <v>252607956</v>
+      </c>
+      <c r="D213" t="s">
+        <v>242</v>
+      </c>
+      <c r="E213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214">
+        <v>900813150</v>
+      </c>
+      <c r="D214" t="s">
+        <v>243</v>
+      </c>
+      <c r="E214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215">
+        <v>248644097</v>
+      </c>
+      <c r="D215" t="s">
+        <v>244</v>
+      </c>
+      <c r="E215" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216">
+        <v>678412397</v>
+      </c>
+      <c r="D216" t="s">
+        <v>245</v>
+      </c>
+      <c r="E216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217">
+        <v>946172851</v>
+      </c>
+      <c r="D217" t="s">
+        <v>246</v>
+      </c>
+      <c r="E217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218">
+        <v>578351974</v>
+      </c>
+      <c r="D218" t="s">
+        <v>247</v>
+      </c>
+      <c r="E218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219">
+        <v>954373868</v>
+      </c>
+      <c r="D219" t="s">
+        <v>248</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F219" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220">
+        <v>206525090</v>
+      </c>
+      <c r="D220" t="s">
+        <v>249</v>
+      </c>
+      <c r="E220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221">
+        <v>658062350</v>
+      </c>
+      <c r="D221" t="s">
+        <v>250</v>
+      </c>
+      <c r="E221" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:G200">
     <sortCondition ref="A167"/>
   </sortState>
-  <conditionalFormatting sqref="D1:D108 D121:D1048576 C109:C120">
+  <conditionalFormatting sqref="D1:D108 D121:D1048576 C109:C120 F219">
     <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E200:E201 E203:E1048576 C202">
+  <conditionalFormatting sqref="E200:E201 C202 E203:E1048576">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="n0">
       <formula>NOT(ISERROR(SEARCH("n0",C200)))</formula>
     </cfRule>
@@ -5268,7 +5661,7 @@
       <formula>NOT(ISERROR(SEARCH("no",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D1048576 F219">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/turk credit.xlsx
+++ b/turk credit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Documents\GitHub\Nick-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B124AB1F-3E66-4176-B573-EFB5EAEC8558}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C52C42-2767-4318-B46D-95DD58F6B888}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" xr2:uid="{7776581E-1E35-4D58-95B8-A7680E59AC6E}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="254">
   <si>
     <t>Random ID</t>
   </si>
@@ -784,6 +784,12 @@
   </si>
   <si>
     <t>Responded with words to judgment blocks.  Pretty sure if this dude had done it right that I'd have all the data I'd need too.</t>
+  </si>
+  <si>
+    <t>A1KEAHVVML6319</t>
+  </si>
+  <si>
+    <t>yes. This dude didnt rate things very high, but I'll take. I think we have everything!</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DC2651-32B9-4198-9F7C-FFF3F60500BB}">
-  <dimension ref="A1:G221"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F222" sqref="F222"/>
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5642,6 +5648,23 @@
       </c>
       <c r="E221" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>12</v>
+      </c>
+      <c r="C222">
+        <v>818243873</v>
+      </c>
+      <c r="D222" t="s">
+        <v>252</v>
+      </c>
+      <c r="E222" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/turk credit.xlsx
+++ b/turk credit.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Documents\GitHub\Nick-Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/Nick-Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C52C42-2767-4318-B46D-95DD58F6B888}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FE8DB938-0727-914F-B8A5-862FC771CA0E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" xr2:uid="{7776581E-1E35-4D58-95B8-A7680E59AC6E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{7776581E-1E35-4D58-95B8-A7680E59AC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$222</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="254">
   <si>
     <t>Random ID</t>
   </si>
@@ -789,7 +789,7 @@
     <t>A1KEAHVVML6319</t>
   </si>
   <si>
-    <t>yes. This dude didnt rate things very high, but I'll take. I think we have everything!</t>
+    <t>This dude didnt rate things very high, but I'll take. I think we have everything!</t>
   </si>
 </sst>
 </file>
@@ -1193,20 +1193,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DC2651-32B9-4198-9F7C-FFF3F60500BB}">
   <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D217" sqref="D217"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5340,8 +5340,11 @@
       <c r="E203" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G203" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5357,8 +5360,11 @@
       <c r="E204" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G204" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5374,8 +5380,11 @@
       <c r="E205" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G205" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5391,8 +5400,11 @@
       <c r="E206" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G206" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5408,8 +5420,11 @@
       <c r="E207" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G207" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5425,8 +5440,11 @@
       <c r="E208" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5442,8 +5460,11 @@
       <c r="E209" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5459,8 +5480,11 @@
       <c r="E210" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5476,8 +5500,11 @@
       <c r="E211" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5493,8 +5520,11 @@
       <c r="E212" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5510,8 +5540,11 @@
       <c r="E213" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5527,8 +5560,11 @@
       <c r="E214" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5544,8 +5580,11 @@
       <c r="E215" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5561,8 +5600,11 @@
       <c r="E216" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5578,8 +5620,11 @@
       <c r="E217" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5595,8 +5640,11 @@
       <c r="E218" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5615,8 +5663,11 @@
       <c r="F219" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5632,8 +5683,11 @@
       <c r="E220" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5649,8 +5703,11 @@
       <c r="E221" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5664,7 +5721,13 @@
         <v>252</v>
       </c>
       <c r="E222" t="s">
+        <v>5</v>
+      </c>
+      <c r="F222" t="s">
         <v>253</v>
+      </c>
+      <c r="G222" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
